--- a/ML/ig/StructureDefinition-Contact.xlsx
+++ b/ML/ig/StructureDefinition-Contact.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-23T15:44:08+00:00</t>
+    <t>2025-10-28T09:35:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-Contact.xlsx
+++ b/ML/ig/StructureDefinition-Contact.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-28T09:35:07+00:00</t>
+    <t>2025-10-28T11:41:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-Contact.xlsx
+++ b/ML/ig/StructureDefinition-Contact.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-28T11:41:28+00:00</t>
+    <t>2025-10-28T14:16:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-Contact.xlsx
+++ b/ML/ig/StructureDefinition-Contact.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-28T14:16:13+00:00</t>
+    <t>2025-10-28T15:15:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-Contact.xlsx
+++ b/ML/ig/StructureDefinition-Contact.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-28T15:15:51+00:00</t>
+    <t>2025-10-29T10:18:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-Contact.xlsx
+++ b/ML/ig/StructureDefinition-Contact.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T10:18:40+00:00</t>
+    <t>2025-10-29T11:46:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-Contact.xlsx
+++ b/ML/ig/StructureDefinition-Contact.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T11:46:56+00:00</t>
+    <t>2025-10-29T12:55:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-Contact.xlsx
+++ b/ML/ig/StructureDefinition-Contact.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T12:55:39+00:00</t>
+    <t>2025-10-29T15:03:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-Contact.xlsx
+++ b/ML/ig/StructureDefinition-Contact.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T15:03:41+00:00</t>
+    <t>2025-10-30T13:09:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-Contact.xlsx
+++ b/ML/ig/StructureDefinition-Contact.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-30T13:09:51+00:00</t>
+    <t>2025-10-30T14:07:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-Contact.xlsx
+++ b/ML/ig/StructureDefinition-Contact.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-30T14:07:11+00:00</t>
+    <t>2025-10-30T14:16:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-Contact.xlsx
+++ b/ML/ig/StructureDefinition-Contact.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-30T14:16:37+00:00</t>
+    <t>2025-10-30T15:20:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-Contact.xlsx
+++ b/ML/ig/StructureDefinition-Contact.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-30T15:20:59+00:00</t>
+    <t>2025-10-30T16:36:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-Contact.xlsx
+++ b/ML/ig/StructureDefinition-Contact.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-30T16:36:55+00:00</t>
+    <t>2025-10-30T16:59:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-Contact.xlsx
+++ b/ML/ig/StructureDefinition-Contact.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-30T16:59:08+00:00</t>
+    <t>2025-11-03T11:12:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-Contact.xlsx
+++ b/ML/ig/StructureDefinition-Contact.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-03T11:12:25+00:00</t>
+    <t>2025-11-03T11:13:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-Contact.xlsx
+++ b/ML/ig/StructureDefinition-Contact.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-03T11:13:02+00:00</t>
+    <t>2025-11-03T13:49:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-Contact.xlsx
+++ b/ML/ig/StructureDefinition-Contact.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="594" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="687" uniqueCount="132">
   <si>
     <t>Property</t>
   </si>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-03T13:49:33+00:00</t>
+    <t>2025-11-03T18:48:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -391,6 +391,36 @@
   </si>
   <si>
     <t>Adresse(s) de télécommunication du contact (numéro de téléphone, adresse email, URL, etc.).</t>
+  </si>
+  <si>
+    <t>Contact.NoteLiaison</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://interop.esante.gouv.fr/ig/mos/StructureDefinition/NoteLiaison
+</t>
+  </si>
+  <si>
+    <t>Lien vers la classe NoteLiaison</t>
+  </si>
+  <si>
+    <t>Contact.Agenda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://interop.esante.gouv.fr/ig/mos/StructureDefinition/Agenda
+</t>
+  </si>
+  <si>
+    <t>Lien vers la classe Agenda</t>
+  </si>
+  <si>
+    <t>Contact.RendezVous</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://interop.esante.gouv.fr/ig/mos/StructureDefinition/RendezVous
+</t>
+  </si>
+  <si>
+    <t>Lien vers la classe RendezVous</t>
   </si>
 </sst>
 </file>
@@ -695,7 +725,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ18"/>
+  <dimension ref="A1:AJ21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2539,6 +2569,306 @@
         <v>70</v>
       </c>
     </row>
+    <row r="19">
+      <c r="A19" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="B19" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="C19" s="2"/>
+      <c r="D19" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="E19" s="2"/>
+      <c r="F19" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="G19" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H19" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="I19" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="J19" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="K19" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="L19" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="M19" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+      <c r="P19" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Q19" s="2"/>
+      <c r="R19" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="S19" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="T19" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="U19" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="V19" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="W19" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="X19" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Y19" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Z19" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AA19" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AB19" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AC19" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AD19" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AE19" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AF19" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="AG19" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AH19" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI19" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AJ19" t="s" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="B20" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="E20" s="2"/>
+      <c r="F20" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="G20" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H20" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="I20" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="J20" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="K20" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="L20" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="M20" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
+      <c r="P20" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Q20" s="2"/>
+      <c r="R20" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="S20" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="T20" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="U20" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="V20" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="W20" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="X20" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Y20" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Z20" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AA20" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AB20" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AC20" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AD20" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AE20" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AF20" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="AG20" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AH20" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI20" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AJ20" t="s" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="B21" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="C21" s="2"/>
+      <c r="D21" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="E21" s="2"/>
+      <c r="F21" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="G21" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H21" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="I21" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="J21" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="K21" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="L21" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="M21" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
+      <c r="P21" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Q21" s="2"/>
+      <c r="R21" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="S21" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="T21" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="U21" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="V21" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="W21" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="X21" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Y21" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Z21" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AA21" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AB21" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AC21" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AD21" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AE21" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AF21" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="AG21" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AH21" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI21" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AJ21" t="s" s="2">
+        <v>70</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/ML/ig/StructureDefinition-Contact.xlsx
+++ b/ML/ig/StructureDefinition-Contact.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-03T18:48:51+00:00</t>
+    <t>2025-11-04T13:35:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-Contact.xlsx
+++ b/ML/ig/StructureDefinition-Contact.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-04T13:35:30+00:00</t>
+    <t>2025-11-04T14:33:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-Contact.xlsx
+++ b/ML/ig/StructureDefinition-Contact.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-04T14:33:37+00:00</t>
+    <t>2025-11-05T10:41:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-Contact.xlsx
+++ b/ML/ig/StructureDefinition-Contact.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-05T10:41:12+00:00</t>
+    <t>2025-11-07T16:48:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-Contact.xlsx
+++ b/ML/ig/StructureDefinition-Contact.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-07T16:48:20+00:00</t>
+    <t>2025-11-14T16:26:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-Contact.xlsx
+++ b/ML/ig/StructureDefinition-Contact.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-14T16:26:13+00:00</t>
+    <t>2025-11-14T16:42:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-Contact.xlsx
+++ b/ML/ig/StructureDefinition-Contact.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-14T16:42:42+00:00</t>
+    <t>2025-11-25T14:31:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-Contact.xlsx
+++ b/ML/ig/StructureDefinition-Contact.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-25T14:31:44+00:00</t>
+    <t>2025-11-25T14:47:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-Contact.xlsx
+++ b/ML/ig/StructureDefinition-Contact.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-25T14:47:14+00:00</t>
+    <t>2025-11-27T15:07:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-Contact.xlsx
+++ b/ML/ig/StructureDefinition-Contact.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-27T15:07:49+00:00</t>
+    <t>2025-11-27T17:02:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-Contact.xlsx
+++ b/ML/ig/StructureDefinition-Contact.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-27T17:02:40+00:00</t>
+    <t>2025-12-02T09:57:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-Contact.xlsx
+++ b/ML/ig/StructureDefinition-Contact.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-02T09:57:01+00:00</t>
+    <t>2025-12-02T14:07:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-Contact.xlsx
+++ b/ML/ig/StructureDefinition-Contact.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-02T14:07:59+00:00</t>
+    <t>2025-12-02T14:23:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-Contact.xlsx
+++ b/ML/ig/StructureDefinition-Contact.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-02T14:23:57+00:00</t>
+    <t>2025-12-02T14:53:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-Contact.xlsx
+++ b/ML/ig/StructureDefinition-Contact.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-02T14:53:18+00:00</t>
+    <t>2025-12-02T15:33:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
